--- a/Parte_1/Ex3_Scripts_Ind/Ex3.xlsx
+++ b/Parte_1/Ex3_Scripts_Ind/Ex3.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16tia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16tia\Desktop\Mestrado\1_ano\1_Semestre\BIOLOGIA_SISTEMAS\TRABALHO\github\Parte_1\Ex3_Scripts_Ind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32CA551-968F-4527-B73E-59E3125786A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6D708F-3B99-49A2-B622-573355AC6F71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{EABCBA86-0B91-4D3E-A8E4-1908AE4E83F3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EABCBA86-0B91-4D3E-A8E4-1908AE4E83F3}"/>
   </bookViews>
   <sheets>
-    <sheet name="3a_1_GKO_list" sheetId="6" r:id="rId1"/>
-    <sheet name="3b_GKO_list" sheetId="7" r:id="rId2"/>
-    <sheet name="3b_GOU_list" sheetId="10" r:id="rId3"/>
-    <sheet name="3b_RKO_list" sheetId="8" r:id="rId4"/>
-    <sheet name="3b_ROU_list" sheetId="9" r:id="rId5"/>
+    <sheet name="Folha1" sheetId="11" r:id="rId1"/>
+    <sheet name="3a_1_GKO_list" sheetId="6" r:id="rId2"/>
+    <sheet name="3b_GKO_list" sheetId="7" r:id="rId3"/>
+    <sheet name="3b_GOU_list" sheetId="10" r:id="rId4"/>
+    <sheet name="3b_RKO_list" sheetId="8" r:id="rId5"/>
+    <sheet name="3b_ROU_list" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="314">
   <si>
     <t>Genes</t>
   </si>
@@ -967,15 +968,49 @@
   </si>
   <si>
     <t>b2415: 0.0625</t>
+  </si>
+  <si>
+    <t>Método</t>
+  </si>
+  <si>
+    <t>Gene Knockout</t>
+  </si>
+  <si>
+    <t>Reaction Knockout</t>
+  </si>
+  <si>
+    <t>Gene Over/Underexpression</t>
+  </si>
+  <si>
+    <t>Reaction Over/Underexpression</t>
+  </si>
+  <si>
+    <t>Modificações</t>
+  </si>
+  <si>
+    <t>b3733</t>
+  </si>
+  <si>
+    <t>H2Otex</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SGDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CRNBTCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PLIPA2A180pp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000000000"/>
     <numFmt numFmtId="165" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="171" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1023,7 +1058,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1074,6 +1109,37 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1389,22 +1455,161 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05BA7C1-F5AC-41D8-B40C-3D91551E9615}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="25">
+        <v>11.4211337268043</v>
+      </c>
+      <c r="C2" s="26">
+        <v>24.997555244566701</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="B3" s="25">
+        <v>24.937345599652598</v>
+      </c>
+      <c r="C3" s="25">
+        <v>49.904613772464003</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="B4" s="25">
+        <v>49.358665362666002</v>
+      </c>
+      <c r="C4" s="25">
+        <v>76.7214585709971</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" s="25">
+        <v>38.470362707893301</v>
+      </c>
+      <c r="C5" s="25">
+        <v>65.641047277569001</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="H5" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A69DD88-180B-4E6C-9FAA-5B3424F90171}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>158</v>
       </c>
@@ -1416,7 +1621,7 @@
       </c>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="15">
         <v>11.4211337268043</v>
       </c>
@@ -1428,7 +1633,7 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>11.4211337268043</v>
       </c>
@@ -1440,7 +1645,7 @@
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>11.4211337268043</v>
       </c>
@@ -1452,7 +1657,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>4.9757987386072999</v>
       </c>
@@ -1464,7 +1669,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>3.8950471979520902</v>
       </c>
@@ -1476,7 +1681,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>2.55466435126969</v>
       </c>
@@ -1488,7 +1693,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>2.36730582919163</v>
       </c>
@@ -1500,7 +1705,7 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>2.1367625315607799</v>
       </c>
@@ -1512,7 +1717,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>2.0729350418914598</v>
       </c>
@@ -1524,7 +1729,7 @@
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>2.0729184744446298</v>
       </c>
@@ -1536,7 +1741,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>2.0728458419929798</v>
       </c>
@@ -1548,7 +1753,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>2.0728458419918798</v>
       </c>
@@ -1560,7 +1765,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>2.07284584199023</v>
       </c>
@@ -1572,7 +1777,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>2.07284584199023</v>
       </c>
@@ -1584,7 +1789,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <v>2.0728458419883098</v>
       </c>
@@ -1596,7 +1801,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>2.0728458419882898</v>
       </c>
@@ -1608,7 +1813,7 @@
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>2.0728458419882299</v>
       </c>
@@ -1620,7 +1825,7 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>2.0728458419882099</v>
       </c>
@@ -1632,7 +1837,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>2.0728458419881899</v>
       </c>
@@ -1644,7 +1849,7 @@
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>2.0728458419881899</v>
       </c>
@@ -1656,7 +1861,7 @@
       </c>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
         <v>2.0728458419878999</v>
       </c>
@@ -1668,7 +1873,7 @@
       </c>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
         <v>2.0728458419878399</v>
       </c>
@@ -1680,7 +1885,7 @@
       </c>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>2.07284584198776</v>
       </c>
@@ -1692,7 +1897,7 @@
       </c>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
         <v>2.0728458419875602</v>
       </c>
@@ -1704,7 +1909,7 @@
       </c>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>2.07284584198755</v>
       </c>
@@ -1716,7 +1921,7 @@
       </c>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
         <v>2.0728458419873901</v>
       </c>
@@ -1728,7 +1933,7 @@
       </c>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="15">
         <v>2.0728458419873901</v>
       </c>
@@ -1740,7 +1945,7 @@
       </c>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
         <v>2.0728458419873599</v>
       </c>
@@ -1752,7 +1957,7 @@
       </c>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
         <v>2.0728458419872799</v>
       </c>
@@ -1764,7 +1969,7 @@
       </c>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>2.0728458419871201</v>
       </c>
@@ -1776,7 +1981,7 @@
       </c>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <v>2.0728458419870099</v>
       </c>
@@ -1788,7 +1993,7 @@
       </c>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>2.07284584198699</v>
       </c>
@@ -1800,7 +2005,7 @@
       </c>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <v>2.0728458419868598</v>
       </c>
@@ -1812,7 +2017,7 @@
       </c>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="15">
         <v>2.0728458419868501</v>
       </c>
@@ -1824,7 +2029,7 @@
       </c>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="15">
         <v>2.0728458419868399</v>
       </c>
@@ -1836,7 +2041,7 @@
       </c>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
         <v>2.07284584198668</v>
       </c>
@@ -1848,7 +2053,7 @@
       </c>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -1860,7 +2065,7 @@
       </c>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -1872,7 +2077,7 @@
       </c>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -1884,7 +2089,7 @@
       </c>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -1896,7 +2101,7 @@
       </c>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -1908,7 +2113,7 @@
       </c>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -1920,7 +2125,7 @@
       </c>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -1932,7 +2137,7 @@
       </c>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -1944,7 +2149,7 @@
       </c>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -1956,7 +2161,7 @@
       </c>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -1968,7 +2173,7 @@
       </c>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -1980,7 +2185,7 @@
       </c>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -1992,7 +2197,7 @@
       </c>
       <c r="I49" s="4"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2004,7 +2209,7 @@
       </c>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2016,7 +2221,7 @@
       </c>
       <c r="I51" s="4"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2028,7 +2233,7 @@
       </c>
       <c r="I52" s="4"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2040,7 +2245,7 @@
       </c>
       <c r="I53" s="4"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2052,7 +2257,7 @@
       </c>
       <c r="I54" s="4"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2064,7 +2269,7 @@
       </c>
       <c r="I55" s="4"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2076,7 +2281,7 @@
       </c>
       <c r="I56" s="4"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2088,7 +2293,7 @@
       </c>
       <c r="I57" s="4"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2100,7 +2305,7 @@
       </c>
       <c r="I58" s="4"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2112,7 +2317,7 @@
       </c>
       <c r="I59" s="4"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2124,7 +2329,7 @@
       </c>
       <c r="I60" s="4"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2136,7 +2341,7 @@
       </c>
       <c r="I61" s="4"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2148,7 +2353,7 @@
       </c>
       <c r="I62" s="4"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2160,7 +2365,7 @@
       </c>
       <c r="I63" s="4"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2172,7 +2377,7 @@
       </c>
       <c r="I64" s="4"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2184,7 +2389,7 @@
       </c>
       <c r="I65" s="4"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2196,7 +2401,7 @@
       </c>
       <c r="I66" s="4"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2208,7 +2413,7 @@
       </c>
       <c r="I67" s="4"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2220,7 +2425,7 @@
       </c>
       <c r="I68" s="4"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2232,7 +2437,7 @@
       </c>
       <c r="I69" s="4"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2244,7 +2449,7 @@
       </c>
       <c r="I70" s="4"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2256,7 +2461,7 @@
       </c>
       <c r="I71" s="4"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2268,7 +2473,7 @@
       </c>
       <c r="I72" s="4"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2280,7 +2485,7 @@
       </c>
       <c r="I73" s="4"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2292,7 +2497,7 @@
       </c>
       <c r="I74" s="4"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2304,7 +2509,7 @@
       </c>
       <c r="I75" s="4"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2316,7 +2521,7 @@
       </c>
       <c r="I76" s="4"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2328,7 +2533,7 @@
       </c>
       <c r="I77" s="4"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2340,7 +2545,7 @@
       </c>
       <c r="I78" s="4"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2352,7 +2557,7 @@
       </c>
       <c r="I79" s="4"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2364,7 +2569,7 @@
       </c>
       <c r="I80" s="4"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2376,7 +2581,7 @@
       </c>
       <c r="I81" s="4"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2388,7 +2593,7 @@
       </c>
       <c r="I82" s="4"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2400,7 +2605,7 @@
       </c>
       <c r="I83" s="4"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2412,7 +2617,7 @@
       </c>
       <c r="I84" s="4"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2424,7 +2629,7 @@
       </c>
       <c r="I85" s="4"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2436,7 +2641,7 @@
       </c>
       <c r="I86" s="4"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2448,7 +2653,7 @@
       </c>
       <c r="I87" s="4"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2460,7 +2665,7 @@
       </c>
       <c r="I88" s="4"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2472,7 +2677,7 @@
       </c>
       <c r="I89" s="4"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2484,7 +2689,7 @@
       </c>
       <c r="I90" s="4"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2496,7 +2701,7 @@
       </c>
       <c r="I91" s="4"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2508,7 +2713,7 @@
       </c>
       <c r="I92" s="4"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2520,7 +2725,7 @@
       </c>
       <c r="I93" s="4"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2532,7 +2737,7 @@
       </c>
       <c r="I94" s="4"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2544,7 +2749,7 @@
       </c>
       <c r="I95" s="4"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2556,7 +2761,7 @@
       </c>
       <c r="I96" s="4"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2568,7 +2773,7 @@
       </c>
       <c r="I97" s="4"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2580,7 +2785,7 @@
       </c>
       <c r="I98" s="4"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2592,7 +2797,7 @@
       </c>
       <c r="I99" s="4"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2604,7 +2809,7 @@
       </c>
       <c r="I100" s="4"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="15">
         <v>2.0728458419865401</v>
       </c>
@@ -2624,26 +2829,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFDFD77B-75BA-4A7F-BCEB-5F0DE2038E0D}">
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>158</v>
       </c>
@@ -2666,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>11.4211337269191</v>
       </c>
@@ -2689,7 +2894,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>11.4211083564108</v>
       </c>
@@ -2712,7 +2917,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>11.4210733250159</v>
       </c>
@@ -2735,7 +2940,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>11.421055652303499</v>
       </c>
@@ -2758,7 +2963,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>11.4210302822323</v>
       </c>
@@ -2781,7 +2986,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>11.394819536530401</v>
       </c>
@@ -2804,7 +3009,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>11.394819536530401</v>
       </c>
@@ -2824,7 +3029,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>11.3947942755177</v>
       </c>
@@ -2847,7 +3052,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>11.3947766788966</v>
       </c>
@@ -2867,7 +3072,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11.394759395157299</v>
       </c>
@@ -2890,7 +3095,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11.3947514180625</v>
       </c>
@@ -2910,7 +3115,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11.3947165379473</v>
       </c>
@@ -2933,7 +3138,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11.3806724983382</v>
       </c>
@@ -2956,7 +3161,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>11.3806472962612</v>
       </c>
@@ -2979,7 +3184,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>11.380629740696399</v>
       </c>
@@ -3002,7 +3207,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>11.3805949418169</v>
       </c>
@@ -3025,7 +3230,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>11.380569740064599</v>
       </c>
@@ -3048,7 +3253,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>11.374054193762699</v>
       </c>
@@ -3068,7 +3273,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>11.374029019185301</v>
       </c>
@@ -3088,7 +3293,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>11.3739942581698</v>
       </c>
@@ -3111,7 +3316,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>11.373976721858901</v>
       </c>
@@ -3134,7 +3339,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>11.3739515476033</v>
       </c>
@@ -3157,7 +3362,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>11.3545325612972</v>
       </c>
@@ -3180,7 +3385,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>11.3545074676376</v>
       </c>
@@ -3203,7 +3408,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>11.3544979118759</v>
       </c>
@@ -3226,7 +3431,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>11.3544728183593</v>
       </c>
@@ -3249,7 +3454,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>11.3544553384185</v>
       </c>
@@ -3272,7 +3477,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>11.347942722920701</v>
       </c>
@@ -3295,7 +3500,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>11.3479176566</v>
       </c>
@@ -3318,7 +3523,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>11.347883045071599</v>
       </c>
@@ -3341,7 +3546,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>11.3478655841645</v>
       </c>
@@ -3364,7 +3569,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>11.333904909481401</v>
       </c>
@@ -3384,7 +3589,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>11.3338799014995</v>
       </c>
@@ -3407,7 +3612,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>11.3338624811219</v>
       </c>
@@ -3430,7 +3635,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>11.323491124501</v>
       </c>
@@ -3453,7 +3658,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>11.323466159656901</v>
       </c>
@@ -3473,7 +3678,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>11.323431688242501</v>
       </c>
@@ -3496,7 +3701,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>11.323389333504601</v>
       </c>
@@ -3519,7 +3724,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>11.3079659032714</v>
       </c>
@@ -3542,7 +3747,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>11.307941002582901</v>
       </c>
@@ -3565,7 +3770,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>11.307923656962499</v>
       </c>
@@ -3588,7 +3793,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>11.2975967888055</v>
       </c>
@@ -3611,7 +3816,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>11.297571931017799</v>
       </c>
@@ -3634,7 +3839,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>11.297571931017799</v>
       </c>
@@ -3657,7 +3862,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>11.297537607429399</v>
       </c>
@@ -3680,7 +3885,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>11.297529757668199</v>
       </c>
@@ -3703,7 +3908,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>11.2836759591655</v>
       </c>
@@ -3726,7 +3931,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>11.283599639633801</v>
       </c>
@@ -3749,7 +3954,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>11.27716319496</v>
       </c>
@@ -3772,7 +3977,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>11.277138421758</v>
       </c>
@@ -3795,7 +4000,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>11.277096391916</v>
       </c>
@@ -3818,7 +4023,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>11.257952172541801</v>
       </c>
@@ -3841,7 +4046,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>11.257910276899199</v>
       </c>
@@ -3864,7 +4069,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>11.251467269472</v>
       </c>
@@ -3887,7 +4092,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>11.237653328139899</v>
       </c>
@@ -3910,7 +4115,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>11.237653328139899</v>
       </c>
@@ -3933,7 +4138,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>11.237619346332201</v>
       </c>
@@ -3956,7 +4161,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>11.237611574734</v>
       </c>
@@ -3979,7 +4184,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>11.2121262017783</v>
       </c>
@@ -4002,7 +4207,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>8.7258227418879493</v>
       </c>
@@ -4022,7 +4227,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>8.7258016533469096</v>
       </c>
@@ -4042,7 +4247,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>8.7257725343532595</v>
       </c>
@@ -4065,7 +4270,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>8.7257658748796398</v>
       </c>
@@ -4088,7 +4293,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>8.7257367561193799</v>
       </c>
@@ -4111,7 +4316,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>8.70394199302185</v>
       </c>
@@ -4134,7 +4339,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>8.70394199302185</v>
       </c>
@@ -4154,7 +4359,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>8.7039210074114095</v>
       </c>
@@ -4177,7 +4382,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>8.7038920305405192</v>
       </c>
@@ -4200,7 +4405,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>8.7038774122357392</v>
       </c>
@@ -4223,7 +4428,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>8.6922049262538792</v>
       </c>
@@ -4246,7 +4451,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>8.6921839958279001</v>
       </c>
@@ -4269,7 +4474,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>8.6921405152921203</v>
       </c>
@@ -4292,7 +4497,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>8.6867087861500902</v>
       </c>
@@ -4315,7 +4520,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>8.6866878815254402</v>
       </c>
@@ -4338,7 +4543,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>8.6866590164772894</v>
       </c>
@@ -4361,7 +4566,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>8.6866444545832397</v>
       </c>
@@ -4384,7 +4589,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>8.6704879839429001</v>
       </c>
@@ -4404,7 +4609,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>8.6704879839429001</v>
       </c>
@@ -4427,7 +4632,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>8.6704526462988998</v>
       </c>
@@ -4450,7 +4655,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>8.6650185722605908</v>
       </c>
@@ -4473,7 +4678,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>8.6650185722605908</v>
       </c>
@@ -4496,7 +4701,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>8.6649832780780098</v>
       </c>
@@ -4519,7 +4724,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>8.6533836607432892</v>
       </c>
@@ -4542,7 +4747,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>8.6533629122431996</v>
       </c>
@@ -4565,7 +4770,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>8.6533484590079706</v>
       </c>
@@ -4588,7 +4793,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>8.6447445611497802</v>
       </c>
@@ -4611,7 +4816,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>8.6447159673121696</v>
       </c>
@@ -4634,7 +4839,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>8.64470942793705</v>
       </c>
@@ -4657,7 +4862,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>8.6446808343229105</v>
       </c>
@@ -4680,7 +4885,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>8.6318551968017001</v>
       </c>
@@ -4703,7 +4908,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>8.6232579405684504</v>
       </c>
@@ -4726,7 +4931,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>8.6232294851623799</v>
       </c>
@@ -4749,7 +4954,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>8.6117321850915296</v>
       </c>
@@ -4772,7 +4977,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>8.6117038039064795</v>
       </c>
@@ -4795,7 +5000,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>8.6116973131679906</v>
       </c>
@@ -4818,7 +5023,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>8.6063348361425493</v>
       </c>
@@ -4841,7 +5046,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>8.6063064896568502</v>
       </c>
@@ -4864,7 +5069,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>8.6063000068533899</v>
       </c>
@@ -4887,7 +5092,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>8.5904051244331701</v>
       </c>
@@ -4910,7 +5115,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>8.5736075633966902</v>
       </c>
@@ -4942,25 +5147,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E860EF6B-A733-49F8-9B96-A9CA295B8B5A}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9:L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>158</v>
       </c>
@@ -4983,7 +5188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="15">
         <v>24.937345599652598</v>
       </c>
@@ -5006,7 +5211,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>24.937345599652101</v>
       </c>
@@ -5029,7 +5234,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>24.937345599651099</v>
       </c>
@@ -5052,7 +5257,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>24.9373455996509</v>
       </c>
@@ -5075,7 +5280,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>24.569599278166901</v>
       </c>
@@ -5095,7 +5300,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>24.569599278166599</v>
       </c>
@@ -5115,7 +5320,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>24.5695992781664</v>
       </c>
@@ -5138,7 +5343,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>24.5695992781664</v>
       </c>
@@ -5161,7 +5366,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>24.569599278166301</v>
       </c>
@@ -5181,7 +5386,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>24.569599278166201</v>
       </c>
@@ -5204,7 +5409,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>24.569599278166098</v>
       </c>
@@ -5224,7 +5429,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>24.5695093368522</v>
       </c>
@@ -5247,7 +5452,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>24.569509336852001</v>
       </c>
@@ -5270,7 +5475,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>22.939418019804599</v>
       </c>
@@ -5293,7 +5498,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <v>22.605932131273299</v>
       </c>
@@ -5316,7 +5521,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>22.605932131272802</v>
       </c>
@@ -5339,7 +5544,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>20.166082569068401</v>
       </c>
@@ -5362,7 +5567,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>20.166057793835499</v>
       </c>
@@ -5385,7 +5590,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>18.653542035238999</v>
       </c>
@@ -5408,7 +5613,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>18.653542035238701</v>
       </c>
@@ -5431,7 +5636,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
         <v>18.653542035238601</v>
       </c>
@@ -5454,7 +5659,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
         <v>18.639272674070199</v>
       </c>
@@ -5477,7 +5682,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>18.6333605761935</v>
       </c>
@@ -5500,7 +5705,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
         <v>15.2662075014455</v>
       </c>
@@ -5523,7 +5728,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>15.266189041967101</v>
       </c>
@@ -5546,7 +5751,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
         <v>15.2557358060377</v>
       </c>
@@ -5569,7 +5774,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="15">
         <v>15.201510421329299</v>
       </c>
@@ -5592,7 +5797,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
         <v>15.2015104213291</v>
       </c>
@@ -5615,7 +5820,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
         <v>15.0583805137517</v>
       </c>
@@ -5635,7 +5840,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>15.052102727845</v>
       </c>
@@ -5658,7 +5863,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <v>15.052084478864399</v>
       </c>
@@ -5678,7 +5883,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>15.044708084996</v>
       </c>
@@ -5701,7 +5906,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <v>14.9969712264544</v>
       </c>
@@ -5724,7 +5929,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="15">
         <v>13.550554705033401</v>
       </c>
@@ -5747,7 +5952,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="15">
         <v>13.550554705033299</v>
       </c>
@@ -5770,7 +5975,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
         <v>13.550554705033299</v>
       </c>
@@ -5790,7 +5995,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
         <v>13.550554705033299</v>
       </c>
@@ -5813,7 +6018,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="15">
         <v>13.5505547050332</v>
       </c>
@@ -5836,7 +6041,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="15">
         <v>13.5505547050332</v>
       </c>
@@ -5859,7 +6064,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="15">
         <v>13.5505547050331</v>
       </c>
@@ -5882,7 +6087,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="15">
         <v>13.5505547050331</v>
       </c>
@@ -5905,7 +6110,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="15">
         <v>13.550554705033001</v>
       </c>
@@ -5928,7 +6133,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>13.505346619328</v>
       </c>
@@ -5951,7 +6156,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
         <v>13.505346619328</v>
       </c>
@@ -5974,7 +6179,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="15">
         <v>13.5053466193279</v>
       </c>
@@ -5997,7 +6202,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="15">
         <v>13.5053466193279</v>
       </c>
@@ -6020,7 +6225,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="15">
         <v>13.505346619327799</v>
       </c>
@@ -6043,7 +6248,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="15">
         <v>13.505346619327799</v>
       </c>
@@ -6066,7 +6271,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="15">
         <v>13.505346619327799</v>
       </c>
@@ -6086,7 +6291,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="15">
         <v>13.5053466193277</v>
       </c>
@@ -6109,7 +6314,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="15">
         <v>13.5053466193277</v>
       </c>
@@ -6132,7 +6337,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="15">
         <v>13.5049422270158</v>
       </c>
@@ -6155,7 +6360,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="15">
         <v>13.389249987824099</v>
       </c>
@@ -6178,7 +6383,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="15">
         <v>13.389249987824099</v>
       </c>
@@ -6201,7 +6406,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="15">
         <v>13.389249987824</v>
       </c>
@@ -6224,7 +6429,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="15">
         <v>13.389249987824</v>
       </c>
@@ -6247,7 +6452,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="15">
         <v>13.389249987823799</v>
       </c>
@@ -6270,7 +6475,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="15">
         <v>13.3892499878237</v>
       </c>
@@ -6293,7 +6498,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="15">
         <v>13.389249987823501</v>
       </c>
@@ -6316,7 +6521,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="15">
         <v>13.389249987823501</v>
       </c>
@@ -6339,7 +6544,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="15">
         <v>13.3892499878233</v>
       </c>
@@ -6362,7 +6567,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="15">
         <v>13.389249987823201</v>
       </c>
@@ -6385,7 +6590,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="15">
         <v>10.5147453061041</v>
       </c>
@@ -6408,7 +6613,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="15">
         <v>10.3770798476979</v>
       </c>
@@ -6431,7 +6636,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="15">
         <v>6.0686219630502798</v>
       </c>
@@ -6454,7 +6659,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="15">
         <v>6.0686219630501199</v>
       </c>
@@ -6477,7 +6682,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="15">
         <v>6.0686219630501199</v>
       </c>
@@ -6500,7 +6705,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="15">
         <v>6.06862196305</v>
       </c>
@@ -6523,7 +6728,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="15">
         <v>6.06862196305</v>
       </c>
@@ -6546,7 +6751,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="15">
         <v>5.6649368824316602</v>
       </c>
@@ -6569,7 +6774,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="15">
         <v>4.3052498626672104</v>
       </c>
@@ -6592,7 +6797,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="15">
         <v>0.63010603330656101</v>
       </c>
@@ -6615,7 +6820,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74"/>
       <c r="B74" s="12"/>
       <c r="C74"/>
@@ -6624,7 +6829,7 @@
       <c r="F74"/>
       <c r="G74"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75"/>
       <c r="B75" s="12"/>
       <c r="C75"/>
@@ -6633,7 +6838,7 @@
       <c r="F75"/>
       <c r="G75"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76"/>
       <c r="B76" s="12"/>
       <c r="C76"/>
@@ -6642,7 +6847,7 @@
       <c r="F76"/>
       <c r="G76"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77"/>
       <c r="B77" s="12"/>
       <c r="C77"/>
@@ -6651,7 +6856,7 @@
       <c r="F77"/>
       <c r="G77"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78"/>
       <c r="B78" s="12"/>
       <c r="C78"/>
@@ -6660,7 +6865,7 @@
       <c r="F78"/>
       <c r="G78"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79"/>
       <c r="B79" s="12"/>
       <c r="C79"/>
@@ -6669,7 +6874,7 @@
       <c r="F79"/>
       <c r="G79"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80"/>
       <c r="B80" s="12"/>
       <c r="C80"/>
@@ -6678,2282 +6883,68 @@
       <c r="F80"/>
       <c r="G80"/>
     </row>
-    <row r="81" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B81" s="12"/>
     </row>
-    <row r="82" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B82" s="12"/>
     </row>
-    <row r="83" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B83" s="12"/>
     </row>
-    <row r="84" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B84" s="12"/>
     </row>
-    <row r="85" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B85" s="12"/>
     </row>
-    <row r="86" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B86" s="12"/>
     </row>
-    <row r="87" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B87" s="12"/>
     </row>
-    <row r="88" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B88" s="12"/>
     </row>
-    <row r="89" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B89" s="12"/>
     </row>
-    <row r="90" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B90" s="12"/>
     </row>
-    <row r="91" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B91" s="12"/>
     </row>
-    <row r="92" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B92" s="12"/>
     </row>
-    <row r="93" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B93" s="12"/>
     </row>
-    <row r="94" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B94" s="12"/>
     </row>
-    <row r="95" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B95" s="12"/>
     </row>
-    <row r="96" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B96" s="12"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97"/>
+    <row r="97" spans="2:2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B97" s="12"/>
-      <c r="C97"/>
-      <c r="D97"/>
-      <c r="E97"/>
-      <c r="F97"/>
-      <c r="G97"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98"/>
+    </row>
+    <row r="98" spans="2:2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B98" s="12"/>
-      <c r="C98"/>
-      <c r="D98"/>
-      <c r="E98"/>
-      <c r="F98"/>
-      <c r="G98"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99"/>
+    </row>
+    <row r="99" spans="2:2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B99" s="12"/>
-      <c r="C99"/>
-      <c r="D99"/>
-      <c r="E99"/>
-      <c r="F99"/>
-      <c r="G99"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100"/>
+    </row>
+    <row r="100" spans="2:2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B100" s="12"/>
-      <c r="C100"/>
-      <c r="D100"/>
-      <c r="E100"/>
-      <c r="F100"/>
-      <c r="G100"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101"/>
+    </row>
+    <row r="101" spans="2:2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B101" s="12"/>
-      <c r="C101"/>
-      <c r="D101"/>
-      <c r="E101"/>
-      <c r="F101"/>
-      <c r="G101"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G101">
-    <sortCondition descending="1" ref="A2:A101"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A48D71E-28DC-45EF-A53A-2C595DED5FA7}">
-  <dimension ref="A1:G101"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L98" sqref="L98"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
-        <v>49.358665362666002</v>
-      </c>
-      <c r="B2" s="19">
-        <v>76.7214585709971</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
-        <v>49.358665362666002</v>
-      </c>
-      <c r="B3" s="19">
-        <v>76.7214585709971</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
-        <v>49.358665362666002</v>
-      </c>
-      <c r="B4" s="19">
-        <v>76.7214585709971</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F4" t="s">
-        <v>162</v>
-      </c>
-      <c r="G4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
-        <v>49.358665362666002</v>
-      </c>
-      <c r="B5" s="19">
-        <v>76.7214585709971</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5" t="s">
-        <v>162</v>
-      </c>
-      <c r="G5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
-        <v>49.358665362666002</v>
-      </c>
-      <c r="B6" s="19">
-        <v>76.7214585709971</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E6" t="s">
-        <v>163</v>
-      </c>
-      <c r="F6" t="s">
-        <v>162</v>
-      </c>
-      <c r="G6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
-        <v>49.358665361343199</v>
-      </c>
-      <c r="B7" s="19">
-        <v>76.721458569554102</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
-        <v>49.358665360605599</v>
-      </c>
-      <c r="B8" s="19">
-        <v>76.721458568781301</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E8" t="s">
-        <v>166</v>
-      </c>
-      <c r="F8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
-        <v>49.358665360605599</v>
-      </c>
-      <c r="B9" s="19">
-        <v>76.721458568781301</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
-        <v>49.358665360592198</v>
-      </c>
-      <c r="B10" s="19">
-        <v>76.721458568737305</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E10" t="s">
-        <v>166</v>
-      </c>
-      <c r="F10" t="s">
-        <v>162</v>
-      </c>
-      <c r="G10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
-        <v>49.358665360584801</v>
-      </c>
-      <c r="B11" s="19">
-        <v>76.721458568729204</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E11" t="s">
-        <v>168</v>
-      </c>
-      <c r="F11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
-        <v>49.358665360579401</v>
-      </c>
-      <c r="B12" s="19">
-        <v>76.721458568724401</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D12" t="s">
-        <v>178</v>
-      </c>
-      <c r="E12" t="s">
-        <v>179</v>
-      </c>
-      <c r="F12" t="s">
-        <v>180</v>
-      </c>
-      <c r="G12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
-        <v>49.358665360575998</v>
-      </c>
-      <c r="B13" s="19">
-        <v>76.721458568719598</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D13" t="s">
-        <v>183</v>
-      </c>
-      <c r="E13" t="s">
-        <v>184</v>
-      </c>
-      <c r="F13" t="s">
-        <v>168</v>
-      </c>
-      <c r="G13" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
-        <v>49.358665360573802</v>
-      </c>
-      <c r="B14" s="19">
-        <v>76.721458568720706</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D14" t="s">
-        <v>181</v>
-      </c>
-      <c r="E14" t="s">
-        <v>180</v>
-      </c>
-      <c r="F14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
-        <v>49.358665360570399</v>
-      </c>
-      <c r="B15" s="19">
-        <v>76.721458568722099</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D15" t="s">
-        <v>184</v>
-      </c>
-      <c r="E15" t="s">
-        <v>168</v>
-      </c>
-      <c r="F15" t="s">
-        <v>163</v>
-      </c>
-      <c r="G15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
-        <v>49.358665360567997</v>
-      </c>
-      <c r="B16" s="19">
-        <v>76.721458568714695</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D16" t="s">
-        <v>168</v>
-      </c>
-      <c r="E16" t="s">
-        <v>178</v>
-      </c>
-      <c r="F16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
-        <v>49.358665360567997</v>
-      </c>
-      <c r="B17" s="19">
-        <v>76.721458568714695</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D17" t="s">
-        <v>178</v>
-      </c>
-      <c r="E17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
-        <v>49.358665360567699</v>
-      </c>
-      <c r="B18" s="19">
-        <v>76.721458568716002</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D18" t="s">
-        <v>178</v>
-      </c>
-      <c r="E18" t="s">
-        <v>177</v>
-      </c>
-      <c r="F18" t="s">
-        <v>162</v>
-      </c>
-      <c r="G18" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
-        <v>49.358665360567699</v>
-      </c>
-      <c r="B19" s="19">
-        <v>76.721458568711</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D19" t="s">
-        <v>163</v>
-      </c>
-      <c r="E19" t="s">
-        <v>171</v>
-      </c>
-      <c r="F19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
-        <v>49.358665360567699</v>
-      </c>
-      <c r="B20" s="19">
-        <v>76.721458568711</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D20" t="s">
-        <v>166</v>
-      </c>
-      <c r="E20" t="s">
-        <v>163</v>
-      </c>
-      <c r="F20" t="s">
-        <v>171</v>
-      </c>
-      <c r="G20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
-        <v>49.358665360567699</v>
-      </c>
-      <c r="B21" s="19">
-        <v>76.721458568711</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D21" t="s">
-        <v>168</v>
-      </c>
-      <c r="E21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F21" t="s">
-        <v>171</v>
-      </c>
-      <c r="G21" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
-        <v>49.358665360567699</v>
-      </c>
-      <c r="B22" s="19">
-        <v>76.721458568711</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D22" t="s">
-        <v>166</v>
-      </c>
-      <c r="E22" t="s">
-        <v>163</v>
-      </c>
-      <c r="F22" t="s">
-        <v>171</v>
-      </c>
-      <c r="G22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
-        <v>49.358665360567301</v>
-      </c>
-      <c r="B23" s="19">
-        <v>76.721458568710105</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D23" t="s">
-        <v>188</v>
-      </c>
-      <c r="E23" t="s">
-        <v>176</v>
-      </c>
-      <c r="F23" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
-        <v>49.358665360566299</v>
-      </c>
-      <c r="B24" s="19">
-        <v>76.721458568714496</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D24" t="s">
-        <v>168</v>
-      </c>
-      <c r="E24" t="s">
-        <v>171</v>
-      </c>
-      <c r="F24" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
-        <v>49.3586653605661</v>
-      </c>
-      <c r="B25" s="19">
-        <v>76.721458568714695</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D25" t="s">
-        <v>166</v>
-      </c>
-      <c r="E25" t="s">
-        <v>183</v>
-      </c>
-      <c r="F25" t="s">
-        <v>168</v>
-      </c>
-      <c r="G25" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
-        <v>49.358665360565801</v>
-      </c>
-      <c r="B26" s="19">
-        <v>76.721458568708599</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D26" t="s">
-        <v>190</v>
-      </c>
-      <c r="E26" t="s">
-        <v>166</v>
-      </c>
-      <c r="F26" t="s">
-        <v>188</v>
-      </c>
-      <c r="G26" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
-        <v>49.358665360564999</v>
-      </c>
-      <c r="B27" s="19">
-        <v>76.721458568706893</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D27" t="s">
-        <v>166</v>
-      </c>
-      <c r="E27" t="s">
-        <v>182</v>
-      </c>
-      <c r="F27" t="s">
-        <v>183</v>
-      </c>
-      <c r="G27" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
-        <v>49.358665360564999</v>
-      </c>
-      <c r="B28" s="19">
-        <v>76.721458568706893</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D28" t="s">
-        <v>176</v>
-      </c>
-      <c r="E28" t="s">
-        <v>166</v>
-      </c>
-      <c r="F28" t="s">
-        <v>183</v>
-      </c>
-      <c r="G28" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
-        <v>49.358665360564899</v>
-      </c>
-      <c r="B29" s="19">
-        <v>76.721458568706296</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D29" t="s">
-        <v>193</v>
-      </c>
-      <c r="E29" t="s">
-        <v>182</v>
-      </c>
-      <c r="F29" t="s">
-        <v>188</v>
-      </c>
-      <c r="G29" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
-        <v>49.358665360563698</v>
-      </c>
-      <c r="B30" s="19">
-        <v>76.721458568703895</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D30" t="s">
-        <v>183</v>
-      </c>
-      <c r="E30" t="s">
-        <v>162</v>
-      </c>
-      <c r="F30" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="15">
-        <v>49.358665360563499</v>
-      </c>
-      <c r="B31" s="19">
-        <v>76.721458568705998</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D31" t="s">
-        <v>188</v>
-      </c>
-      <c r="E31" t="s">
-        <v>162</v>
-      </c>
-      <c r="F31" t="s">
-        <v>194</v>
-      </c>
-      <c r="G31" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
-        <v>49.358665360563499</v>
-      </c>
-      <c r="B32" s="19">
-        <v>76.721458568705998</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D32" t="s">
-        <v>188</v>
-      </c>
-      <c r="E32" t="s">
-        <v>162</v>
-      </c>
-      <c r="F32" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="15">
-        <v>49.358665360563499</v>
-      </c>
-      <c r="B33" s="19">
-        <v>76.721458568705998</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D33" t="s">
-        <v>166</v>
-      </c>
-      <c r="E33" t="s">
-        <v>188</v>
-      </c>
-      <c r="F33" t="s">
-        <v>162</v>
-      </c>
-      <c r="G33" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="15">
-        <v>49.358665360563499</v>
-      </c>
-      <c r="B34" s="19">
-        <v>76.721458568705998</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D34" t="s">
-        <v>166</v>
-      </c>
-      <c r="E34" t="s">
-        <v>188</v>
-      </c>
-      <c r="F34" t="s">
-        <v>162</v>
-      </c>
-      <c r="G34" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="15">
-        <v>49.358665360563201</v>
-      </c>
-      <c r="B35" s="19">
-        <v>76.721458568705998</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D35" t="s">
-        <v>190</v>
-      </c>
-      <c r="E35" t="s">
-        <v>166</v>
-      </c>
-      <c r="F35" t="s">
-        <v>163</v>
-      </c>
-      <c r="G35" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="15">
-        <v>49.358665360562902</v>
-      </c>
-      <c r="B36" s="19">
-        <v>76.721458568703795</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D36" t="s">
-        <v>166</v>
-      </c>
-      <c r="E36" t="s">
-        <v>188</v>
-      </c>
-      <c r="F36" t="s">
-        <v>168</v>
-      </c>
-      <c r="G36" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="15">
-        <v>49.358665360562902</v>
-      </c>
-      <c r="B37" s="19">
-        <v>76.721458568703795</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D37" t="s">
-        <v>189</v>
-      </c>
-      <c r="E37" t="s">
-        <v>188</v>
-      </c>
-      <c r="F37" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="15">
-        <v>49.358665360562902</v>
-      </c>
-      <c r="B38" s="19">
-        <v>76.721458568703795</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D38" t="s">
-        <v>174</v>
-      </c>
-      <c r="E38" t="s">
-        <v>166</v>
-      </c>
-      <c r="F38" t="s">
-        <v>188</v>
-      </c>
-      <c r="G38" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="15">
-        <v>49.358665360562703</v>
-      </c>
-      <c r="B39" s="19">
-        <v>76.721458568704307</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D39" t="s">
-        <v>197</v>
-      </c>
-      <c r="E39" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="15">
-        <v>49.358665360562703</v>
-      </c>
-      <c r="B40" s="19">
-        <v>76.721458568704193</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D40" t="s">
-        <v>184</v>
-      </c>
-      <c r="E40" t="s">
-        <v>185</v>
-      </c>
-      <c r="F40" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="15">
-        <v>49.358665360562497</v>
-      </c>
-      <c r="B41" s="19">
-        <v>76.721458568703696</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D41" t="s">
-        <v>166</v>
-      </c>
-      <c r="E41" t="s">
-        <v>184</v>
-      </c>
-      <c r="F41" t="s">
-        <v>162</v>
-      </c>
-      <c r="G41" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="15">
-        <v>49.358665360562497</v>
-      </c>
-      <c r="B42" s="19">
-        <v>76.721458568703696</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D42" t="s">
-        <v>189</v>
-      </c>
-      <c r="E42" t="s">
-        <v>162</v>
-      </c>
-      <c r="F42" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="15">
-        <v>49.358665360562298</v>
-      </c>
-      <c r="B43" s="19">
-        <v>76.721458568705998</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D43" t="s">
-        <v>171</v>
-      </c>
-      <c r="E43" t="s">
-        <v>178</v>
-      </c>
-      <c r="F43" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="15">
-        <v>49.358665360562298</v>
-      </c>
-      <c r="B44" s="19">
-        <v>76.721458568703298</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D44" t="s">
-        <v>171</v>
-      </c>
-      <c r="E44" t="s">
-        <v>166</v>
-      </c>
-      <c r="F44" t="s">
-        <v>188</v>
-      </c>
-      <c r="G44" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="15">
-        <v>49.358665360562298</v>
-      </c>
-      <c r="B45" s="19">
-        <v>76.721458568703298</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D45" t="s">
-        <v>188</v>
-      </c>
-      <c r="E45" t="s">
-        <v>186</v>
-      </c>
-      <c r="F45" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="15">
-        <v>49.358665360562298</v>
-      </c>
-      <c r="B46" s="19">
-        <v>76.721458568703298</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D46" t="s">
-        <v>166</v>
-      </c>
-      <c r="E46" t="s">
-        <v>188</v>
-      </c>
-      <c r="F46" t="s">
-        <v>186</v>
-      </c>
-      <c r="G46" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="15">
-        <v>49.358665360561702</v>
-      </c>
-      <c r="B47" s="19">
-        <v>76.721458568708698</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D47" t="s">
-        <v>189</v>
-      </c>
-      <c r="E47" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="15">
-        <v>49.358665360561098</v>
-      </c>
-      <c r="B48" s="19">
-        <v>76.721458568701806</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D48" t="s">
-        <v>166</v>
-      </c>
-      <c r="E48" t="s">
-        <v>188</v>
-      </c>
-      <c r="F48" t="s">
-        <v>191</v>
-      </c>
-      <c r="G48" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="15">
-        <v>49.358665360560998</v>
-      </c>
-      <c r="B49" s="19">
-        <v>76.721458568701806</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D49" t="s">
-        <v>162</v>
-      </c>
-      <c r="E49" t="s">
-        <v>188</v>
-      </c>
-      <c r="F49" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="15">
-        <v>49.358665360560998</v>
-      </c>
-      <c r="B50" s="19">
-        <v>76.721458568701806</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D50" t="s">
-        <v>166</v>
-      </c>
-      <c r="E50" t="s">
-        <v>188</v>
-      </c>
-      <c r="F50" t="s">
-        <v>191</v>
-      </c>
-      <c r="G50" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="15">
-        <v>49.358665360560899</v>
-      </c>
-      <c r="B51" s="19">
-        <v>76.7214585687056</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D51" t="s">
-        <v>178</v>
-      </c>
-      <c r="E51" t="s">
-        <v>182</v>
-      </c>
-      <c r="F51" t="s">
-        <v>180</v>
-      </c>
-      <c r="G51" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="15">
-        <v>49.358665360560799</v>
-      </c>
-      <c r="B52" s="19">
-        <v>76.721458568710304</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D52" t="s">
-        <v>166</v>
-      </c>
-      <c r="E52" t="s">
-        <v>168</v>
-      </c>
-      <c r="F52" t="s">
-        <v>185</v>
-      </c>
-      <c r="G52" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="15">
-        <v>49.358665360560501</v>
-      </c>
-      <c r="B53" s="19">
-        <v>76.721458568703298</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D53" t="s">
-        <v>166</v>
-      </c>
-      <c r="E53" t="s">
-        <v>188</v>
-      </c>
-      <c r="F53" t="s">
-        <v>191</v>
-      </c>
-      <c r="G53" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="15">
-        <v>49.358665360560401</v>
-      </c>
-      <c r="B54" s="19">
-        <v>76.721458568702204</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D54" t="s">
-        <v>200</v>
-      </c>
-      <c r="E54" t="s">
-        <v>178</v>
-      </c>
-      <c r="F54" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="15">
-        <v>49.358665360560202</v>
-      </c>
-      <c r="B55" s="19">
-        <v>76.721458568704406</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D55" t="s">
-        <v>174</v>
-      </c>
-      <c r="E55" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="15">
-        <v>49.358665360560202</v>
-      </c>
-      <c r="B56" s="19">
-        <v>76.721458568704406</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D56" t="s">
-        <v>163</v>
-      </c>
-      <c r="E56" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="15">
-        <v>49.358665360560202</v>
-      </c>
-      <c r="B57" s="19">
-        <v>76.721458568704406</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D57" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="15">
-        <v>49.358665360560202</v>
-      </c>
-      <c r="B58" s="19">
-        <v>76.721458568704406</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D58" t="s">
-        <v>173</v>
-      </c>
-      <c r="E58" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="15">
-        <v>49.358665360560202</v>
-      </c>
-      <c r="B59" s="19">
-        <v>76.721458568704406</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D59" t="s">
-        <v>168</v>
-      </c>
-      <c r="E59" t="s">
-        <v>163</v>
-      </c>
-      <c r="F59" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="15">
-        <v>49.358665360560202</v>
-      </c>
-      <c r="B60" s="19">
-        <v>76.721458568704406</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D60" t="s">
-        <v>184</v>
-      </c>
-      <c r="E60" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="15">
-        <v>49.358665360560202</v>
-      </c>
-      <c r="B61" s="19">
-        <v>76.721458568704406</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D61" t="s">
-        <v>174</v>
-      </c>
-      <c r="E61" t="s">
-        <v>184</v>
-      </c>
-      <c r="F61" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="15">
-        <v>49.358665360560202</v>
-      </c>
-      <c r="B62" s="19">
-        <v>76.721458568704406</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D62" t="s">
-        <v>198</v>
-      </c>
-      <c r="E62" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="15">
-        <v>49.358665360560003</v>
-      </c>
-      <c r="B63" s="19">
-        <v>76.721458568703099</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D63" t="s">
-        <v>166</v>
-      </c>
-      <c r="E63" t="s">
-        <v>181</v>
-      </c>
-      <c r="F63" t="s">
-        <v>183</v>
-      </c>
-      <c r="G63" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="15">
-        <v>49.358665360560003</v>
-      </c>
-      <c r="B64" s="19">
-        <v>76.721458568703099</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D64" t="s">
-        <v>166</v>
-      </c>
-      <c r="E64" t="s">
-        <v>181</v>
-      </c>
-      <c r="F64" t="s">
-        <v>183</v>
-      </c>
-      <c r="G64" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="15">
-        <v>49.358665360559797</v>
-      </c>
-      <c r="B65" s="19">
-        <v>76.721458568702701</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D65" t="s">
-        <v>189</v>
-      </c>
-      <c r="E65" t="s">
-        <v>181</v>
-      </c>
-      <c r="F65" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="15">
-        <v>49.358665360559698</v>
-      </c>
-      <c r="B66" s="19">
-        <v>76.721458568701195</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D66" t="s">
-        <v>166</v>
-      </c>
-      <c r="E66" t="s">
-        <v>184</v>
-      </c>
-      <c r="F66" t="s">
-        <v>194</v>
-      </c>
-      <c r="G66" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="15">
-        <v>49.358665360559698</v>
-      </c>
-      <c r="B67" s="19">
-        <v>76.721458568701195</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D67" t="s">
-        <v>184</v>
-      </c>
-      <c r="E67" t="s">
-        <v>176</v>
-      </c>
-      <c r="F67" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="15">
-        <v>49.358665360559598</v>
-      </c>
-      <c r="B68" s="19">
-        <v>76.721458568701195</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D68" t="s">
-        <v>166</v>
-      </c>
-      <c r="E68" t="s">
-        <v>183</v>
-      </c>
-      <c r="F68" t="s">
-        <v>184</v>
-      </c>
-      <c r="G68" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="15">
-        <v>49.358665360559598</v>
-      </c>
-      <c r="B69" s="19">
-        <v>76.721458568701095</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D69" t="s">
-        <v>202</v>
-      </c>
-      <c r="E69" t="s">
-        <v>178</v>
-      </c>
-      <c r="F69" t="s">
-        <v>179</v>
-      </c>
-      <c r="G69" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="15">
-        <v>49.358665360559598</v>
-      </c>
-      <c r="B70" s="19">
-        <v>76.721458568699703</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D70" t="s">
-        <v>204</v>
-      </c>
-      <c r="E70" t="s">
-        <v>166</v>
-      </c>
-      <c r="F70" t="s">
-        <v>162</v>
-      </c>
-      <c r="G70" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="15">
-        <v>49.358665360559598</v>
-      </c>
-      <c r="B71" s="19">
-        <v>76.721458568699703</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D71" t="s">
-        <v>166</v>
-      </c>
-      <c r="E71" t="s">
-        <v>162</v>
-      </c>
-      <c r="F71" t="s">
-        <v>194</v>
-      </c>
-      <c r="G71" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="15">
-        <v>49.358665360559598</v>
-      </c>
-      <c r="B72" s="19">
-        <v>76.721458568699703</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D72" t="s">
-        <v>204</v>
-      </c>
-      <c r="E72" t="s">
-        <v>166</v>
-      </c>
-      <c r="F72" t="s">
-        <v>162</v>
-      </c>
-      <c r="G72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="15">
-        <v>49.358665360559399</v>
-      </c>
-      <c r="B73" s="19">
-        <v>76.721458568702005</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D73" t="s">
-        <v>202</v>
-      </c>
-      <c r="E73" t="s">
-        <v>168</v>
-      </c>
-      <c r="F73" t="s">
-        <v>177</v>
-      </c>
-      <c r="G73" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="15">
-        <v>49.358665360559002</v>
-      </c>
-      <c r="B74" s="19">
-        <v>76.721458568701095</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D74" t="s">
-        <v>184</v>
-      </c>
-      <c r="E74" t="s">
-        <v>168</v>
-      </c>
-      <c r="F74" t="s">
-        <v>177</v>
-      </c>
-      <c r="G74" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="15">
-        <v>49.358665360559002</v>
-      </c>
-      <c r="B75" s="19">
-        <v>76.721458568701095</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D75" t="s">
-        <v>185</v>
-      </c>
-      <c r="E75" t="s">
-        <v>184</v>
-      </c>
-      <c r="F75" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="15">
-        <v>49.358665360559002</v>
-      </c>
-      <c r="B76" s="19">
-        <v>76.721458568700598</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D76" t="s">
-        <v>206</v>
-      </c>
-      <c r="E76" t="s">
-        <v>180</v>
-      </c>
-      <c r="F76" t="s">
-        <v>194</v>
-      </c>
-      <c r="G76" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="15">
-        <v>49.358665360559002</v>
-      </c>
-      <c r="B77" s="19">
-        <v>76.721458568700598</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D77" t="s">
-        <v>166</v>
-      </c>
-      <c r="E77" t="s">
-        <v>180</v>
-      </c>
-      <c r="F77" t="s">
-        <v>194</v>
-      </c>
-      <c r="G77" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="15">
-        <v>49.358665360558398</v>
-      </c>
-      <c r="B78" s="19">
-        <v>76.721458568701493</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D78" t="s">
-        <v>203</v>
-      </c>
-      <c r="E78" t="s">
-        <v>204</v>
-      </c>
-      <c r="F78" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="15">
-        <v>49.358665360558398</v>
-      </c>
-      <c r="B79" s="19">
-        <v>76.721458568701493</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D79" t="s">
-        <v>204</v>
-      </c>
-      <c r="E79" t="s">
-        <v>166</v>
-      </c>
-      <c r="F79" t="s">
-        <v>194</v>
-      </c>
-      <c r="G79" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="15">
-        <v>49.358665360558</v>
-      </c>
-      <c r="B80" s="19">
-        <v>76.721458568701394</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D80" t="s">
-        <v>188</v>
-      </c>
-      <c r="E80" t="s">
-        <v>179</v>
-      </c>
-      <c r="F80" t="s">
-        <v>186</v>
-      </c>
-      <c r="G80" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="15">
-        <v>49.3586653605579</v>
-      </c>
-      <c r="B81" s="19">
-        <v>76.721458568701294</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D81" t="s">
-        <v>179</v>
-      </c>
-      <c r="E81" t="s">
-        <v>162</v>
-      </c>
-      <c r="F81" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="15">
-        <v>49.358665360557701</v>
-      </c>
-      <c r="B82" s="19">
-        <v>76.721458568701493</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D82" t="s">
-        <v>166</v>
-      </c>
-      <c r="E82" t="s">
-        <v>179</v>
-      </c>
-      <c r="F82" t="s">
-        <v>191</v>
-      </c>
-      <c r="G82" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="15">
-        <v>49.358665360557701</v>
-      </c>
-      <c r="B83" s="19">
-        <v>76.721458568699802</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D83" t="s">
-        <v>162</v>
-      </c>
-      <c r="E83" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="15">
-        <v>49.358665360557701</v>
-      </c>
-      <c r="B84" s="19">
-        <v>76.721458568699802</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D84" t="s">
-        <v>208</v>
-      </c>
-      <c r="E84" t="s">
-        <v>162</v>
-      </c>
-      <c r="F84" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="15">
-        <v>49.358665360557701</v>
-      </c>
-      <c r="B85" s="19">
-        <v>76.721458568699802</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D85" t="s">
-        <v>166</v>
-      </c>
-      <c r="E85" t="s">
-        <v>208</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
-      </c>
-      <c r="G85" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="15">
-        <v>49.358665360557403</v>
-      </c>
-      <c r="B86" s="19">
-        <v>76.721458568701195</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D86" t="s">
-        <v>168</v>
-      </c>
-      <c r="E86" t="s">
-        <v>185</v>
-      </c>
-      <c r="F86" t="s">
-        <v>171</v>
-      </c>
-      <c r="G86" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="15">
-        <v>49.358665360557197</v>
-      </c>
-      <c r="B87" s="19">
-        <v>76.721458568698907</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D87" t="s">
-        <v>182</v>
-      </c>
-      <c r="E87" t="s">
-        <v>162</v>
-      </c>
-      <c r="F87" t="s">
-        <v>194</v>
-      </c>
-      <c r="G87" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="15">
-        <v>49.358665360557197</v>
-      </c>
-      <c r="B88" s="19">
-        <v>76.721458568698907</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D88" t="s">
-        <v>182</v>
-      </c>
-      <c r="E88" t="s">
-        <v>162</v>
-      </c>
-      <c r="F88" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="15">
-        <v>49.358665360556998</v>
-      </c>
-      <c r="B89" s="19">
-        <v>76.721458568703795</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D89" t="s">
-        <v>166</v>
-      </c>
-      <c r="E89" t="s">
-        <v>182</v>
-      </c>
-      <c r="F89" t="s">
-        <v>194</v>
-      </c>
-      <c r="G89" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="15">
-        <v>49.358665360556799</v>
-      </c>
-      <c r="B90" s="19">
-        <v>76.721458568700996</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D90" t="s">
-        <v>200</v>
-      </c>
-      <c r="E90" t="s">
-        <v>168</v>
-      </c>
-      <c r="F90" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="15">
-        <v>49.358665360556799</v>
-      </c>
-      <c r="B91" s="19">
-        <v>76.721458568700996</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D91" t="s">
-        <v>173</v>
-      </c>
-      <c r="E91" t="s">
-        <v>166</v>
-      </c>
-      <c r="F91" t="s">
-        <v>168</v>
-      </c>
-      <c r="G91" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="15">
-        <v>49.358665360556799</v>
-      </c>
-      <c r="B92" s="19">
-        <v>76.721458568700996</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D92" t="s">
-        <v>200</v>
-      </c>
-      <c r="E92" t="s">
-        <v>190</v>
-      </c>
-      <c r="F92" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="15">
-        <v>49.358665360556799</v>
-      </c>
-      <c r="B93" s="19">
-        <v>76.721458568697798</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D93" t="s">
-        <v>174</v>
-      </c>
-      <c r="E93" t="s">
-        <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="15">
-        <v>49.358665360556799</v>
-      </c>
-      <c r="B94" s="19">
-        <v>76.721458568697798</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D94" t="s">
-        <v>183</v>
-      </c>
-      <c r="E94" t="s">
-        <v>162</v>
-      </c>
-      <c r="F94" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="15">
-        <v>49.3586653605566</v>
-      </c>
-      <c r="B95" s="19">
-        <v>76.721458568700797</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D95" t="s">
-        <v>162</v>
-      </c>
-      <c r="E95" t="s">
-        <v>207</v>
-      </c>
-      <c r="F95" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="15">
-        <v>49.3586653605566</v>
-      </c>
-      <c r="B96" s="19">
-        <v>76.721458568700797</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D96" t="s">
-        <v>173</v>
-      </c>
-      <c r="E96" t="s">
-        <v>207</v>
-      </c>
-      <c r="F96" t="s">
-        <v>166</v>
-      </c>
-      <c r="G96" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="15">
-        <v>49.358665360556401</v>
-      </c>
-      <c r="B97" s="19">
-        <v>76.721458568701607</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D97" t="s">
-        <v>189</v>
-      </c>
-      <c r="E97" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="15">
-        <v>49.358665360556401</v>
-      </c>
-      <c r="B98" s="19">
-        <v>76.721458568701607</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D98" t="s">
-        <v>189</v>
-      </c>
-      <c r="E98" t="s">
-        <v>173</v>
-      </c>
-      <c r="F98" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="15">
-        <v>49.3586653605553</v>
-      </c>
-      <c r="B99" s="19">
-        <v>76.721458568702801</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D99" t="s">
-        <v>166</v>
-      </c>
-      <c r="E99" t="s">
-        <v>188</v>
-      </c>
-      <c r="F99" t="s">
-        <v>163</v>
-      </c>
-      <c r="G99" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="15">
-        <v>49.3586653605553</v>
-      </c>
-      <c r="B100" s="19">
-        <v>76.721458568702801</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D100" t="s">
-        <v>188</v>
-      </c>
-      <c r="E100" t="s">
-        <v>168</v>
-      </c>
-      <c r="F100" t="s">
-        <v>163</v>
-      </c>
-      <c r="G100" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="15">
-        <v>49.358665360555101</v>
-      </c>
-      <c r="B101" s="19">
-        <v>76.721458568703</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D101" t="s">
-        <v>166</v>
-      </c>
-      <c r="E101" t="s">
-        <v>179</v>
-      </c>
-      <c r="F101" t="s">
-        <v>191</v>
-      </c>
-      <c r="G101" t="s">
-        <v>171</v>
-      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G101">
@@ -8964,26 +6955,2210 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A48D71E-28DC-45EF-A53A-2C595DED5FA7}">
+  <dimension ref="A1:G101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="15">
+        <v>49.358665362666002</v>
+      </c>
+      <c r="B2" s="19">
+        <v>76.7214585709971</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
+        <v>49.358665362666002</v>
+      </c>
+      <c r="B3" s="19">
+        <v>76.7214585709971</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
+        <v>49.358665362666002</v>
+      </c>
+      <c r="B4" s="19">
+        <v>76.7214585709971</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
+        <v>49.358665362666002</v>
+      </c>
+      <c r="B5" s="19">
+        <v>76.7214585709971</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
+        <v>49.358665362666002</v>
+      </c>
+      <c r="B6" s="19">
+        <v>76.7214585709971</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>49.358665361343199</v>
+      </c>
+      <c r="B7" s="19">
+        <v>76.721458569554102</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>49.358665360605599</v>
+      </c>
+      <c r="B8" s="19">
+        <v>76.721458568781301</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>49.358665360605599</v>
+      </c>
+      <c r="B9" s="19">
+        <v>76.721458568781301</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
+        <v>49.358665360592198</v>
+      </c>
+      <c r="B10" s="19">
+        <v>76.721458568737305</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>49.358665360584801</v>
+      </c>
+      <c r="B11" s="19">
+        <v>76.721458568729204</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
+        <v>49.358665360579401</v>
+      </c>
+      <c r="B12" s="19">
+        <v>76.721458568724401</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" t="s">
+        <v>180</v>
+      </c>
+      <c r="G12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
+        <v>49.358665360575998</v>
+      </c>
+      <c r="B13" s="19">
+        <v>76.721458568719598</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" t="s">
+        <v>184</v>
+      </c>
+      <c r="F13" t="s">
+        <v>168</v>
+      </c>
+      <c r="G13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
+        <v>49.358665360573802</v>
+      </c>
+      <c r="B14" s="19">
+        <v>76.721458568720706</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
+        <v>49.358665360570399</v>
+      </c>
+      <c r="B15" s="19">
+        <v>76.721458568722099</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" t="s">
+        <v>168</v>
+      </c>
+      <c r="F15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
+        <v>49.358665360567997</v>
+      </c>
+      <c r="B16" s="19">
+        <v>76.721458568714695</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="15">
+        <v>49.358665360567997</v>
+      </c>
+      <c r="B17" s="19">
+        <v>76.721458568714695</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" t="s">
+        <v>178</v>
+      </c>
+      <c r="E17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="15">
+        <v>49.358665360567699</v>
+      </c>
+      <c r="B18" s="19">
+        <v>76.721458568716002</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E18" t="s">
+        <v>177</v>
+      </c>
+      <c r="F18" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
+        <v>49.358665360567699</v>
+      </c>
+      <c r="B19" s="19">
+        <v>76.721458568711</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" t="s">
+        <v>171</v>
+      </c>
+      <c r="F19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="15">
+        <v>49.358665360567699</v>
+      </c>
+      <c r="B20" s="19">
+        <v>76.721458568711</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="15">
+        <v>49.358665360567699</v>
+      </c>
+      <c r="B21" s="19">
+        <v>76.721458568711</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="15">
+        <v>49.358665360567699</v>
+      </c>
+      <c r="B22" s="19">
+        <v>76.721458568711</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="15">
+        <v>49.358665360567301</v>
+      </c>
+      <c r="B23" s="19">
+        <v>76.721458568710105</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23" t="s">
+        <v>176</v>
+      </c>
+      <c r="F23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="15">
+        <v>49.358665360566299</v>
+      </c>
+      <c r="B24" s="19">
+        <v>76.721458568714496</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="15">
+        <v>49.3586653605661</v>
+      </c>
+      <c r="B25" s="19">
+        <v>76.721458568714695</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" t="s">
+        <v>183</v>
+      </c>
+      <c r="F25" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="15">
+        <v>49.358665360565801</v>
+      </c>
+      <c r="B26" s="19">
+        <v>76.721458568708599</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" t="s">
+        <v>190</v>
+      </c>
+      <c r="E26" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" t="s">
+        <v>188</v>
+      </c>
+      <c r="G26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="15">
+        <v>49.358665360564999</v>
+      </c>
+      <c r="B27" s="19">
+        <v>76.721458568706893</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D27" t="s">
+        <v>166</v>
+      </c>
+      <c r="E27" t="s">
+        <v>182</v>
+      </c>
+      <c r="F27" t="s">
+        <v>183</v>
+      </c>
+      <c r="G27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="15">
+        <v>49.358665360564999</v>
+      </c>
+      <c r="B28" s="19">
+        <v>76.721458568706893</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28" t="s">
+        <v>166</v>
+      </c>
+      <c r="F28" t="s">
+        <v>183</v>
+      </c>
+      <c r="G28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="15">
+        <v>49.358665360564899</v>
+      </c>
+      <c r="B29" s="19">
+        <v>76.721458568706296</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" t="s">
+        <v>193</v>
+      </c>
+      <c r="E29" t="s">
+        <v>182</v>
+      </c>
+      <c r="F29" t="s">
+        <v>188</v>
+      </c>
+      <c r="G29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="15">
+        <v>49.358665360563698</v>
+      </c>
+      <c r="B30" s="19">
+        <v>76.721458568703895</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E30" t="s">
+        <v>162</v>
+      </c>
+      <c r="F30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="15">
+        <v>49.358665360563499</v>
+      </c>
+      <c r="B31" s="19">
+        <v>76.721458568705998</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" t="s">
+        <v>188</v>
+      </c>
+      <c r="E31" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" t="s">
+        <v>194</v>
+      </c>
+      <c r="G31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="15">
+        <v>49.358665360563499</v>
+      </c>
+      <c r="B32" s="19">
+        <v>76.721458568705998</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" t="s">
+        <v>188</v>
+      </c>
+      <c r="E32" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="15">
+        <v>49.358665360563499</v>
+      </c>
+      <c r="B33" s="19">
+        <v>76.721458568705998</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D33" t="s">
+        <v>166</v>
+      </c>
+      <c r="E33" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" t="s">
+        <v>162</v>
+      </c>
+      <c r="G33" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="15">
+        <v>49.358665360563499</v>
+      </c>
+      <c r="B34" s="19">
+        <v>76.721458568705998</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E34" t="s">
+        <v>188</v>
+      </c>
+      <c r="F34" t="s">
+        <v>162</v>
+      </c>
+      <c r="G34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="15">
+        <v>49.358665360563201</v>
+      </c>
+      <c r="B35" s="19">
+        <v>76.721458568705998</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D35" t="s">
+        <v>190</v>
+      </c>
+      <c r="E35" t="s">
+        <v>166</v>
+      </c>
+      <c r="F35" t="s">
+        <v>163</v>
+      </c>
+      <c r="G35" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="15">
+        <v>49.358665360562902</v>
+      </c>
+      <c r="B36" s="19">
+        <v>76.721458568703795</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D36" t="s">
+        <v>166</v>
+      </c>
+      <c r="E36" t="s">
+        <v>188</v>
+      </c>
+      <c r="F36" t="s">
+        <v>168</v>
+      </c>
+      <c r="G36" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="15">
+        <v>49.358665360562902</v>
+      </c>
+      <c r="B37" s="19">
+        <v>76.721458568703795</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D37" t="s">
+        <v>189</v>
+      </c>
+      <c r="E37" t="s">
+        <v>188</v>
+      </c>
+      <c r="F37" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="15">
+        <v>49.358665360562902</v>
+      </c>
+      <c r="B38" s="19">
+        <v>76.721458568703795</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D38" t="s">
+        <v>174</v>
+      </c>
+      <c r="E38" t="s">
+        <v>166</v>
+      </c>
+      <c r="F38" t="s">
+        <v>188</v>
+      </c>
+      <c r="G38" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="15">
+        <v>49.358665360562703</v>
+      </c>
+      <c r="B39" s="19">
+        <v>76.721458568704307</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" t="s">
+        <v>197</v>
+      </c>
+      <c r="E39" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="15">
+        <v>49.358665360562703</v>
+      </c>
+      <c r="B40" s="19">
+        <v>76.721458568704193</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" t="s">
+        <v>184</v>
+      </c>
+      <c r="E40" t="s">
+        <v>185</v>
+      </c>
+      <c r="F40" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="15">
+        <v>49.358665360562497</v>
+      </c>
+      <c r="B41" s="19">
+        <v>76.721458568703696</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D41" t="s">
+        <v>166</v>
+      </c>
+      <c r="E41" t="s">
+        <v>184</v>
+      </c>
+      <c r="F41" t="s">
+        <v>162</v>
+      </c>
+      <c r="G41" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="15">
+        <v>49.358665360562497</v>
+      </c>
+      <c r="B42" s="19">
+        <v>76.721458568703696</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" t="s">
+        <v>189</v>
+      </c>
+      <c r="E42" t="s">
+        <v>162</v>
+      </c>
+      <c r="F42" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="15">
+        <v>49.358665360562298</v>
+      </c>
+      <c r="B43" s="19">
+        <v>76.721458568705998</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" t="s">
+        <v>171</v>
+      </c>
+      <c r="E43" t="s">
+        <v>178</v>
+      </c>
+      <c r="F43" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="15">
+        <v>49.358665360562298</v>
+      </c>
+      <c r="B44" s="19">
+        <v>76.721458568703298</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" t="s">
+        <v>171</v>
+      </c>
+      <c r="E44" t="s">
+        <v>166</v>
+      </c>
+      <c r="F44" t="s">
+        <v>188</v>
+      </c>
+      <c r="G44" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="15">
+        <v>49.358665360562298</v>
+      </c>
+      <c r="B45" s="19">
+        <v>76.721458568703298</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" t="s">
+        <v>188</v>
+      </c>
+      <c r="E45" t="s">
+        <v>186</v>
+      </c>
+      <c r="F45" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="15">
+        <v>49.358665360562298</v>
+      </c>
+      <c r="B46" s="19">
+        <v>76.721458568703298</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D46" t="s">
+        <v>166</v>
+      </c>
+      <c r="E46" t="s">
+        <v>188</v>
+      </c>
+      <c r="F46" t="s">
+        <v>186</v>
+      </c>
+      <c r="G46" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="15">
+        <v>49.358665360561702</v>
+      </c>
+      <c r="B47" s="19">
+        <v>76.721458568708698</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D47" t="s">
+        <v>189</v>
+      </c>
+      <c r="E47" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="15">
+        <v>49.358665360561098</v>
+      </c>
+      <c r="B48" s="19">
+        <v>76.721458568701806</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D48" t="s">
+        <v>166</v>
+      </c>
+      <c r="E48" t="s">
+        <v>188</v>
+      </c>
+      <c r="F48" t="s">
+        <v>191</v>
+      </c>
+      <c r="G48" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="15">
+        <v>49.358665360560998</v>
+      </c>
+      <c r="B49" s="19">
+        <v>76.721458568701806</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" t="s">
+        <v>162</v>
+      </c>
+      <c r="E49" t="s">
+        <v>188</v>
+      </c>
+      <c r="F49" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="15">
+        <v>49.358665360560998</v>
+      </c>
+      <c r="B50" s="19">
+        <v>76.721458568701806</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" t="s">
+        <v>166</v>
+      </c>
+      <c r="E50" t="s">
+        <v>188</v>
+      </c>
+      <c r="F50" t="s">
+        <v>191</v>
+      </c>
+      <c r="G50" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="15">
+        <v>49.358665360560899</v>
+      </c>
+      <c r="B51" s="19">
+        <v>76.7214585687056</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D51" t="s">
+        <v>178</v>
+      </c>
+      <c r="E51" t="s">
+        <v>182</v>
+      </c>
+      <c r="F51" t="s">
+        <v>180</v>
+      </c>
+      <c r="G51" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="15">
+        <v>49.358665360560799</v>
+      </c>
+      <c r="B52" s="19">
+        <v>76.721458568710304</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D52" t="s">
+        <v>166</v>
+      </c>
+      <c r="E52" t="s">
+        <v>168</v>
+      </c>
+      <c r="F52" t="s">
+        <v>185</v>
+      </c>
+      <c r="G52" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="15">
+        <v>49.358665360560501</v>
+      </c>
+      <c r="B53" s="19">
+        <v>76.721458568703298</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D53" t="s">
+        <v>166</v>
+      </c>
+      <c r="E53" t="s">
+        <v>188</v>
+      </c>
+      <c r="F53" t="s">
+        <v>191</v>
+      </c>
+      <c r="G53" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="15">
+        <v>49.358665360560401</v>
+      </c>
+      <c r="B54" s="19">
+        <v>76.721458568702204</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D54" t="s">
+        <v>200</v>
+      </c>
+      <c r="E54" t="s">
+        <v>178</v>
+      </c>
+      <c r="F54" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="15">
+        <v>49.358665360560202</v>
+      </c>
+      <c r="B55" s="19">
+        <v>76.721458568704406</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D55" t="s">
+        <v>174</v>
+      </c>
+      <c r="E55" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="15">
+        <v>49.358665360560202</v>
+      </c>
+      <c r="B56" s="19">
+        <v>76.721458568704406</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D56" t="s">
+        <v>163</v>
+      </c>
+      <c r="E56" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="15">
+        <v>49.358665360560202</v>
+      </c>
+      <c r="B57" s="19">
+        <v>76.721458568704406</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="15">
+        <v>49.358665360560202</v>
+      </c>
+      <c r="B58" s="19">
+        <v>76.721458568704406</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D58" t="s">
+        <v>173</v>
+      </c>
+      <c r="E58" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="15">
+        <v>49.358665360560202</v>
+      </c>
+      <c r="B59" s="19">
+        <v>76.721458568704406</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D59" t="s">
+        <v>168</v>
+      </c>
+      <c r="E59" t="s">
+        <v>163</v>
+      </c>
+      <c r="F59" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="15">
+        <v>49.358665360560202</v>
+      </c>
+      <c r="B60" s="19">
+        <v>76.721458568704406</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" t="s">
+        <v>184</v>
+      </c>
+      <c r="E60" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="15">
+        <v>49.358665360560202</v>
+      </c>
+      <c r="B61" s="19">
+        <v>76.721458568704406</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61" t="s">
+        <v>174</v>
+      </c>
+      <c r="E61" t="s">
+        <v>184</v>
+      </c>
+      <c r="F61" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="15">
+        <v>49.358665360560202</v>
+      </c>
+      <c r="B62" s="19">
+        <v>76.721458568704406</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62" t="s">
+        <v>198</v>
+      </c>
+      <c r="E62" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="15">
+        <v>49.358665360560003</v>
+      </c>
+      <c r="B63" s="19">
+        <v>76.721458568703099</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D63" t="s">
+        <v>166</v>
+      </c>
+      <c r="E63" t="s">
+        <v>181</v>
+      </c>
+      <c r="F63" t="s">
+        <v>183</v>
+      </c>
+      <c r="G63" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="15">
+        <v>49.358665360560003</v>
+      </c>
+      <c r="B64" s="19">
+        <v>76.721458568703099</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D64" t="s">
+        <v>166</v>
+      </c>
+      <c r="E64" t="s">
+        <v>181</v>
+      </c>
+      <c r="F64" t="s">
+        <v>183</v>
+      </c>
+      <c r="G64" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="15">
+        <v>49.358665360559797</v>
+      </c>
+      <c r="B65" s="19">
+        <v>76.721458568702701</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D65" t="s">
+        <v>189</v>
+      </c>
+      <c r="E65" t="s">
+        <v>181</v>
+      </c>
+      <c r="F65" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="15">
+        <v>49.358665360559698</v>
+      </c>
+      <c r="B66" s="19">
+        <v>76.721458568701195</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D66" t="s">
+        <v>166</v>
+      </c>
+      <c r="E66" t="s">
+        <v>184</v>
+      </c>
+      <c r="F66" t="s">
+        <v>194</v>
+      </c>
+      <c r="G66" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="15">
+        <v>49.358665360559698</v>
+      </c>
+      <c r="B67" s="19">
+        <v>76.721458568701195</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D67" t="s">
+        <v>184</v>
+      </c>
+      <c r="E67" t="s">
+        <v>176</v>
+      </c>
+      <c r="F67" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="15">
+        <v>49.358665360559598</v>
+      </c>
+      <c r="B68" s="19">
+        <v>76.721458568701195</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D68" t="s">
+        <v>166</v>
+      </c>
+      <c r="E68" t="s">
+        <v>183</v>
+      </c>
+      <c r="F68" t="s">
+        <v>184</v>
+      </c>
+      <c r="G68" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="15">
+        <v>49.358665360559598</v>
+      </c>
+      <c r="B69" s="19">
+        <v>76.721458568701095</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D69" t="s">
+        <v>202</v>
+      </c>
+      <c r="E69" t="s">
+        <v>178</v>
+      </c>
+      <c r="F69" t="s">
+        <v>179</v>
+      </c>
+      <c r="G69" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="15">
+        <v>49.358665360559598</v>
+      </c>
+      <c r="B70" s="19">
+        <v>76.721458568699703</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D70" t="s">
+        <v>204</v>
+      </c>
+      <c r="E70" t="s">
+        <v>166</v>
+      </c>
+      <c r="F70" t="s">
+        <v>162</v>
+      </c>
+      <c r="G70" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="15">
+        <v>49.358665360559598</v>
+      </c>
+      <c r="B71" s="19">
+        <v>76.721458568699703</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D71" t="s">
+        <v>166</v>
+      </c>
+      <c r="E71" t="s">
+        <v>162</v>
+      </c>
+      <c r="F71" t="s">
+        <v>194</v>
+      </c>
+      <c r="G71" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="15">
+        <v>49.358665360559598</v>
+      </c>
+      <c r="B72" s="19">
+        <v>76.721458568699703</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D72" t="s">
+        <v>204</v>
+      </c>
+      <c r="E72" t="s">
+        <v>166</v>
+      </c>
+      <c r="F72" t="s">
+        <v>162</v>
+      </c>
+      <c r="G72" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="15">
+        <v>49.358665360559399</v>
+      </c>
+      <c r="B73" s="19">
+        <v>76.721458568702005</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D73" t="s">
+        <v>202</v>
+      </c>
+      <c r="E73" t="s">
+        <v>168</v>
+      </c>
+      <c r="F73" t="s">
+        <v>177</v>
+      </c>
+      <c r="G73" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="15">
+        <v>49.358665360559002</v>
+      </c>
+      <c r="B74" s="19">
+        <v>76.721458568701095</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D74" t="s">
+        <v>184</v>
+      </c>
+      <c r="E74" t="s">
+        <v>168</v>
+      </c>
+      <c r="F74" t="s">
+        <v>177</v>
+      </c>
+      <c r="G74" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="15">
+        <v>49.358665360559002</v>
+      </c>
+      <c r="B75" s="19">
+        <v>76.721458568701095</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D75" t="s">
+        <v>185</v>
+      </c>
+      <c r="E75" t="s">
+        <v>184</v>
+      </c>
+      <c r="F75" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="15">
+        <v>49.358665360559002</v>
+      </c>
+      <c r="B76" s="19">
+        <v>76.721458568700598</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D76" t="s">
+        <v>206</v>
+      </c>
+      <c r="E76" t="s">
+        <v>180</v>
+      </c>
+      <c r="F76" t="s">
+        <v>194</v>
+      </c>
+      <c r="G76" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="15">
+        <v>49.358665360559002</v>
+      </c>
+      <c r="B77" s="19">
+        <v>76.721458568700598</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D77" t="s">
+        <v>166</v>
+      </c>
+      <c r="E77" t="s">
+        <v>180</v>
+      </c>
+      <c r="F77" t="s">
+        <v>194</v>
+      </c>
+      <c r="G77" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="15">
+        <v>49.358665360558398</v>
+      </c>
+      <c r="B78" s="19">
+        <v>76.721458568701493</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D78" t="s">
+        <v>203</v>
+      </c>
+      <c r="E78" t="s">
+        <v>204</v>
+      </c>
+      <c r="F78" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="15">
+        <v>49.358665360558398</v>
+      </c>
+      <c r="B79" s="19">
+        <v>76.721458568701493</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D79" t="s">
+        <v>204</v>
+      </c>
+      <c r="E79" t="s">
+        <v>166</v>
+      </c>
+      <c r="F79" t="s">
+        <v>194</v>
+      </c>
+      <c r="G79" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="15">
+        <v>49.358665360558</v>
+      </c>
+      <c r="B80" s="19">
+        <v>76.721458568701394</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D80" t="s">
+        <v>188</v>
+      </c>
+      <c r="E80" t="s">
+        <v>179</v>
+      </c>
+      <c r="F80" t="s">
+        <v>186</v>
+      </c>
+      <c r="G80" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="15">
+        <v>49.3586653605579</v>
+      </c>
+      <c r="B81" s="19">
+        <v>76.721458568701294</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D81" t="s">
+        <v>179</v>
+      </c>
+      <c r="E81" t="s">
+        <v>162</v>
+      </c>
+      <c r="F81" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="15">
+        <v>49.358665360557701</v>
+      </c>
+      <c r="B82" s="19">
+        <v>76.721458568701493</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D82" t="s">
+        <v>166</v>
+      </c>
+      <c r="E82" t="s">
+        <v>179</v>
+      </c>
+      <c r="F82" t="s">
+        <v>191</v>
+      </c>
+      <c r="G82" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="15">
+        <v>49.358665360557701</v>
+      </c>
+      <c r="B83" s="19">
+        <v>76.721458568699802</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D83" t="s">
+        <v>162</v>
+      </c>
+      <c r="E83" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="15">
+        <v>49.358665360557701</v>
+      </c>
+      <c r="B84" s="19">
+        <v>76.721458568699802</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D84" t="s">
+        <v>208</v>
+      </c>
+      <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="15">
+        <v>49.358665360557701</v>
+      </c>
+      <c r="B85" s="19">
+        <v>76.721458568699802</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D85" t="s">
+        <v>166</v>
+      </c>
+      <c r="E85" t="s">
+        <v>208</v>
+      </c>
+      <c r="F85" t="s">
+        <v>168</v>
+      </c>
+      <c r="G85" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="15">
+        <v>49.358665360557403</v>
+      </c>
+      <c r="B86" s="19">
+        <v>76.721458568701195</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D86" t="s">
+        <v>168</v>
+      </c>
+      <c r="E86" t="s">
+        <v>185</v>
+      </c>
+      <c r="F86" t="s">
+        <v>171</v>
+      </c>
+      <c r="G86" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="15">
+        <v>49.358665360557197</v>
+      </c>
+      <c r="B87" s="19">
+        <v>76.721458568698907</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D87" t="s">
+        <v>182</v>
+      </c>
+      <c r="E87" t="s">
+        <v>162</v>
+      </c>
+      <c r="F87" t="s">
+        <v>194</v>
+      </c>
+      <c r="G87" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="15">
+        <v>49.358665360557197</v>
+      </c>
+      <c r="B88" s="19">
+        <v>76.721458568698907</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D88" t="s">
+        <v>182</v>
+      </c>
+      <c r="E88" t="s">
+        <v>162</v>
+      </c>
+      <c r="F88" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="15">
+        <v>49.358665360556998</v>
+      </c>
+      <c r="B89" s="19">
+        <v>76.721458568703795</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D89" t="s">
+        <v>166</v>
+      </c>
+      <c r="E89" t="s">
+        <v>182</v>
+      </c>
+      <c r="F89" t="s">
+        <v>194</v>
+      </c>
+      <c r="G89" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="15">
+        <v>49.358665360556799</v>
+      </c>
+      <c r="B90" s="19">
+        <v>76.721458568700996</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D90" t="s">
+        <v>200</v>
+      </c>
+      <c r="E90" t="s">
+        <v>168</v>
+      </c>
+      <c r="F90" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="15">
+        <v>49.358665360556799</v>
+      </c>
+      <c r="B91" s="19">
+        <v>76.721458568700996</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D91" t="s">
+        <v>173</v>
+      </c>
+      <c r="E91" t="s">
+        <v>166</v>
+      </c>
+      <c r="F91" t="s">
+        <v>168</v>
+      </c>
+      <c r="G91" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="15">
+        <v>49.358665360556799</v>
+      </c>
+      <c r="B92" s="19">
+        <v>76.721458568700996</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D92" t="s">
+        <v>200</v>
+      </c>
+      <c r="E92" t="s">
+        <v>190</v>
+      </c>
+      <c r="F92" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="15">
+        <v>49.358665360556799</v>
+      </c>
+      <c r="B93" s="19">
+        <v>76.721458568697798</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D93" t="s">
+        <v>174</v>
+      </c>
+      <c r="E93" t="s">
+        <v>183</v>
+      </c>
+      <c r="F93" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="15">
+        <v>49.358665360556799</v>
+      </c>
+      <c r="B94" s="19">
+        <v>76.721458568697798</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D94" t="s">
+        <v>183</v>
+      </c>
+      <c r="E94" t="s">
+        <v>162</v>
+      </c>
+      <c r="F94" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="15">
+        <v>49.3586653605566</v>
+      </c>
+      <c r="B95" s="19">
+        <v>76.721458568700797</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D95" t="s">
+        <v>162</v>
+      </c>
+      <c r="E95" t="s">
+        <v>207</v>
+      </c>
+      <c r="F95" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="15">
+        <v>49.3586653605566</v>
+      </c>
+      <c r="B96" s="19">
+        <v>76.721458568700797</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D96" t="s">
+        <v>173</v>
+      </c>
+      <c r="E96" t="s">
+        <v>207</v>
+      </c>
+      <c r="F96" t="s">
+        <v>166</v>
+      </c>
+      <c r="G96" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="15">
+        <v>49.358665360556401</v>
+      </c>
+      <c r="B97" s="19">
+        <v>76.721458568701607</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D97" t="s">
+        <v>189</v>
+      </c>
+      <c r="E97" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="15">
+        <v>49.358665360556401</v>
+      </c>
+      <c r="B98" s="19">
+        <v>76.721458568701607</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D98" t="s">
+        <v>189</v>
+      </c>
+      <c r="E98" t="s">
+        <v>173</v>
+      </c>
+      <c r="F98" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="15">
+        <v>49.3586653605553</v>
+      </c>
+      <c r="B99" s="19">
+        <v>76.721458568702801</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D99" t="s">
+        <v>166</v>
+      </c>
+      <c r="E99" t="s">
+        <v>188</v>
+      </c>
+      <c r="F99" t="s">
+        <v>163</v>
+      </c>
+      <c r="G99" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="15">
+        <v>49.3586653605553</v>
+      </c>
+      <c r="B100" s="19">
+        <v>76.721458568702801</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D100" t="s">
+        <v>188</v>
+      </c>
+      <c r="E100" t="s">
+        <v>168</v>
+      </c>
+      <c r="F100" t="s">
+        <v>163</v>
+      </c>
+      <c r="G100" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="15">
+        <v>49.358665360555101</v>
+      </c>
+      <c r="B101" s="19">
+        <v>76.721458568703</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D101" t="s">
+        <v>166</v>
+      </c>
+      <c r="E101" t="s">
+        <v>179</v>
+      </c>
+      <c r="F101" t="s">
+        <v>191</v>
+      </c>
+      <c r="G101" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G101">
+    <sortCondition descending="1" ref="A2:A101"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3ECE2B-EE63-44DC-A20A-1D2A817AA04B}">
   <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="2"/>
+    <col min="8" max="9" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>158</v>
       </c>
@@ -9006,7 +9181,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>38.470362707893301</v>
       </c>
@@ -9026,7 +9201,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>24.980540167170101</v>
       </c>
@@ -9043,7 +9218,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>24.268202394855098</v>
       </c>
@@ -9063,7 +9238,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>8.7259255811279193</v>
       </c>
@@ -9080,7 +9255,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>8.71650834437059</v>
       </c>
@@ -9103,7 +9278,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>8.7069346160922496</v>
       </c>
@@ -9126,7 +9301,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>8.7069346160921093</v>
       </c>
@@ -9149,7 +9324,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8.6877842968146002</v>
       </c>
@@ -9172,7 +9347,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8.6494722073773804</v>
       </c>
@@ -9192,7 +9367,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8.6494722073773698</v>
       </c>
@@ -9212,7 +9387,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>8.6494722073773502</v>
       </c>
@@ -9235,7 +9410,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>8.5862481584105996</v>
       </c>
@@ -9258,7 +9433,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>8.5768093195562898</v>
       </c>
@@ -9281,7 +9456,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>8.5672162757491108</v>
       </c>
@@ -9304,7 +9479,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>8.5480273221878509</v>
       </c>
@@ -9324,7 +9499,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>8.5096379512800997</v>
       </c>
@@ -9344,7 +9519,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>8.4416441079956002</v>
       </c>
@@ -9367,7 +9542,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>8.4321884139194996</v>
       </c>
@@ -9387,7 +9562,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>8.4225809782359295</v>
       </c>
@@ -9404,7 +9579,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>8.1517855883091102</v>
       </c>
@@ -9427,7 +9602,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>8.1422961595787307</v>
       </c>
@@ -9444,7 +9619,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>8.1422961595787005</v>
       </c>
@@ -9467,7 +9642,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>8.1326599401419095</v>
       </c>
@@ -9490,7 +9665,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>8.1133846353206298</v>
       </c>
@@ -9513,7 +9688,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>8.0748225618932903</v>
       </c>
@@ -9536,7 +9711,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>7.8361216551097499</v>
       </c>
@@ -9559,7 +9734,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>7.8279305872505498</v>
       </c>
@@ -9582,7 +9757,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>7.8196180678110503</v>
       </c>
@@ -9605,7 +9780,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>7.8029909099573898</v>
       </c>
@@ -9628,7 +9803,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>7.7697281183515097</v>
       </c>
@@ -9651,7 +9826,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>7.7697281183512201</v>
       </c>
@@ -9671,7 +9846,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>7.6941227489864499</v>
       </c>
@@ -9691,7 +9866,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>7.6941227489864303</v>
       </c>
@@ -9711,7 +9886,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>7.6775835987676597</v>
       </c>
@@ -9734,7 +9909,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>7.6275930368205298</v>
       </c>
@@ -9757,7 +9932,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>7.5476397144631902</v>
       </c>
@@ -9777,7 +9952,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>7.5310735374687203</v>
       </c>
@@ -9800,7 +9975,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>7.5143879886495304</v>
       </c>
@@ -9823,7 +9998,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>7.25401834927042</v>
       </c>
@@ -9843,7 +10018,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>7.2540183492703703</v>
       </c>
@@ -9863,7 +10038,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>7.2457573704003497</v>
       </c>
@@ -9883,7 +10058,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>7.2435176550893496</v>
       </c>
@@ -9906,7 +10081,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>7.2373980977390397</v>
       </c>
@@ -9929,7 +10104,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>7.2206628355891498</v>
       </c>
@@ -9952,7 +10127,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>7.18718382580332</v>
       </c>
@@ -9975,7 +10150,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>6.8896158898081898</v>
       </c>
@@ -9998,7 +10173,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>6.3944227422071496</v>
       </c>
@@ -10018,7 +10193,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>6.3944227422071096</v>
       </c>
@@ -10038,7 +10213,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>6.3847302276560303</v>
       </c>
@@ -10061,7 +10236,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>6.3749213056998304</v>
       </c>
@@ -10084,7 +10259,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>6.35530059583939</v>
       </c>
@@ -10104,7 +10279,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>6.3553005958393296</v>
       </c>
@@ -10121,7 +10296,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>6.3160477123338303</v>
       </c>
@@ -10144,7 +10319,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>6.3160477123337699</v>
       </c>
@@ -10167,7 +10342,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>5.4739418660224199</v>
       </c>
@@ -10190,7 +10365,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>5.4655122900487703</v>
       </c>
@@ -10213,7 +10388,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>5.4569965796670896</v>
       </c>
@@ -10236,7 +10411,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>5.4569965796670701</v>
       </c>
@@ -10259,7 +10434,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>5.4399630375322401</v>
       </c>
@@ -10282,7 +10457,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>5.4058874677767097</v>
       </c>
@@ -10305,7 +10480,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>5.0722679908409196</v>
       </c>
@@ -10322,7 +10497,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>5.0623950800324602</v>
       </c>
@@ -10339,7 +10514,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>5.0203573241178203</v>
       </c>
@@ -10362,7 +10537,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>5.0118880480789896</v>
       </c>
@@ -10382,7 +10557,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>5.0033395845844204</v>
       </c>
@@ -10405,7 +10580,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>4.9862405386203799</v>
       </c>
@@ -10428,7 +10603,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>4.92475901456221</v>
       </c>
@@ -10451,7 +10626,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>4.9247590145621896</v>
       </c>
@@ -10471,7 +10646,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>4.9048774792992296</v>
       </c>
@@ -10494,7 +10669,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>4.90487747929921</v>
       </c>
@@ -10517,7 +10692,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>4.8727138458545802</v>
       </c>
@@ -10537,7 +10712,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>4.7742319036383698</v>
       </c>
@@ -10560,7 +10735,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>4.7742317290551597</v>
       </c>
@@ -10583,7 +10758,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>4.75431852343457</v>
       </c>
@@ -10606,7 +10781,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>4.7220793263225902</v>
       </c>
@@ -10629,7 +10804,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>4.7220793263225804</v>
       </c>
@@ -10652,7 +10827,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>4.7049981528103704</v>
       </c>
@@ -10675,7 +10850,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>4.7049981528103402</v>
       </c>
@@ -10698,7 +10873,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>4.6535157553002504</v>
       </c>
@@ -10721,7 +10896,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>4.4725221375281601</v>
       </c>
@@ -10744,7 +10919,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>4.4725221375281601</v>
       </c>
@@ -10764,7 +10939,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>4.4201549911123497</v>
       </c>
@@ -10784,7 +10959,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>4.4030194771630304</v>
       </c>
@@ -10804,7 +10979,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>4.1320058114716298</v>
       </c>
@@ -10824,7 +10999,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>4.13200581147162</v>
       </c>
@@ -10844,7 +11019,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>4.06283982648816</v>
       </c>
@@ -10867,7 +11042,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>3.9820655251370298</v>
       </c>
@@ -10890,7 +11065,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>3.9647903711100398</v>
       </c>
@@ -10913,7 +11088,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>3.8296051874725499</v>
       </c>
@@ -10933,7 +11108,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>3.52402456239217</v>
       </c>
@@ -10956,7 +11131,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>2.8411384677367502</v>
       </c>
@@ -10979,7 +11154,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>2.6439240140077098</v>
       </c>
@@ -11002,7 +11177,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>2.6031560049608302</v>
       </c>
@@ -11025,7 +11200,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>1.5452180116085501</v>
       </c>
@@ -11048,7 +11223,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96"/>
       <c r="B96" s="12"/>
       <c r="C96"/>
@@ -11057,7 +11232,7 @@
       <c r="F96"/>
       <c r="G96"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97"/>
       <c r="B97" s="12"/>
       <c r="C97"/>
@@ -11066,7 +11241,7 @@
       <c r="F97"/>
       <c r="G97"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98"/>
       <c r="B98" s="12"/>
       <c r="C98"/>
@@ -11075,7 +11250,7 @@
       <c r="F98"/>
       <c r="G98"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99"/>
       <c r="B99" s="12"/>
       <c r="C99"/>
@@ -11084,7 +11259,7 @@
       <c r="F99"/>
       <c r="G99"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100"/>
       <c r="B100" s="12"/>
       <c r="C100"/>
@@ -11093,7 +11268,7 @@
       <c r="F100"/>
       <c r="G100"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101"/>
       <c r="B101" s="12"/>
       <c r="C101"/>
